--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Chad-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Chad-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.295074</v>
+        <v>0.094391</v>
       </c>
       <c r="H2">
-        <v>0.885222</v>
+        <v>0.283173</v>
       </c>
       <c r="I2">
-        <v>0.05545958198347656</v>
+        <v>0.0221350519338066</v>
       </c>
       <c r="J2">
-        <v>0.05737883381650184</v>
+        <v>0.02253140614153937</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>40.784858385648</v>
+        <v>11.508975602949</v>
       </c>
       <c r="R2">
-        <v>367.063725470832</v>
+        <v>103.580780426541</v>
       </c>
       <c r="S2">
-        <v>0.01247410035153987</v>
+        <v>0.005051732719865381</v>
       </c>
       <c r="T2">
-        <v>0.01421043626639727</v>
+        <v>0.005451970378703924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.295074</v>
+        <v>0.094391</v>
       </c>
       <c r="H3">
-        <v>0.885222</v>
+        <v>0.283173</v>
       </c>
       <c r="I3">
-        <v>0.05545958198347656</v>
+        <v>0.0221350519338066</v>
       </c>
       <c r="J3">
-        <v>0.05737883381650184</v>
+        <v>0.02253140614153937</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>43.64567301042</v>
+        <v>13.96178152303</v>
       </c>
       <c r="R3">
-        <v>392.81105709378</v>
+        <v>125.65603370727</v>
       </c>
       <c r="S3">
-        <v>0.01334908411093222</v>
+        <v>0.006128363720697263</v>
       </c>
       <c r="T3">
-        <v>0.01520721363683447</v>
+        <v>0.006613900482853654</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.295074</v>
+        <v>0.094391</v>
       </c>
       <c r="H4">
-        <v>0.885222</v>
+        <v>0.283173</v>
       </c>
       <c r="I4">
-        <v>0.05545958198347656</v>
+        <v>0.0221350519338066</v>
       </c>
       <c r="J4">
-        <v>0.05737883381650184</v>
+        <v>0.02253140614153937</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>21.915918287016</v>
+        <v>7.882117560342667</v>
       </c>
       <c r="R4">
-        <v>197.243264583144</v>
+        <v>70.939058043084</v>
       </c>
       <c r="S4">
-        <v>0.006703011235772417</v>
+        <v>0.003459765017766281</v>
       </c>
       <c r="T4">
-        <v>0.007636038774301685</v>
+        <v>0.003733874581282375</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.295074</v>
+        <v>0.094391</v>
       </c>
       <c r="H5">
-        <v>0.885222</v>
+        <v>0.283173</v>
       </c>
       <c r="I5">
-        <v>0.05545958198347656</v>
+        <v>0.0221350519338066</v>
       </c>
       <c r="J5">
-        <v>0.05737883381650184</v>
+        <v>0.02253140614153937</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>49.943073123567</v>
+        <v>8.596043243837501</v>
       </c>
       <c r="R5">
-        <v>299.658438741402</v>
+        <v>51.576259463025</v>
       </c>
       <c r="S5">
-        <v>0.01527515187417931</v>
+        <v>0.003773134500792988</v>
       </c>
       <c r="T5">
-        <v>0.01160092063022768</v>
+        <v>0.002714714425579952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.295074</v>
+        <v>0.094391</v>
       </c>
       <c r="H6">
-        <v>0.885222</v>
+        <v>0.283173</v>
       </c>
       <c r="I6">
-        <v>0.05545958198347656</v>
+        <v>0.0221350519338066</v>
       </c>
       <c r="J6">
-        <v>0.05737883381650184</v>
+        <v>0.02253140614153937</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>25.03908074623801</v>
+        <v>8.479674951329999</v>
       </c>
       <c r="R6">
-        <v>225.351726716142</v>
+        <v>76.31707456197</v>
       </c>
       <c r="S6">
-        <v>0.007658234411052749</v>
+        <v>0.003722055974684689</v>
       </c>
       <c r="T6">
-        <v>0.008724224508740729</v>
+        <v>0.004016946273119462</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.931774666666666</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H7">
-        <v>5.795323999999999</v>
+        <v>5.795324</v>
       </c>
       <c r="I7">
-        <v>0.3630798223483028</v>
+        <v>0.4530085767825175</v>
       </c>
       <c r="J7">
-        <v>0.375644677503253</v>
+        <v>0.4611202295621775</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>267.0081274967715</v>
+        <v>235.538849138812</v>
       </c>
       <c r="R7">
-        <v>2403.073147470944</v>
+        <v>2119.849642249308</v>
       </c>
       <c r="S7">
-        <v>0.08166477239120522</v>
+        <v>0.1033870738842373</v>
       </c>
       <c r="T7">
-        <v>0.09303212340534069</v>
+        <v>0.1115782040766314</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.931774666666666</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H8">
-        <v>5.795323999999999</v>
+        <v>5.795324</v>
       </c>
       <c r="I8">
-        <v>0.3630798223483028</v>
+        <v>0.4530085767825175</v>
       </c>
       <c r="J8">
-        <v>0.375644677503253</v>
+        <v>0.4611202295621775</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
         <v>285.7371555309733</v>
@@ -948,10 +948,10 @@
         <v>2571.63439977876</v>
       </c>
       <c r="S8">
-        <v>0.08739306922569046</v>
+        <v>0.1254210442072025</v>
       </c>
       <c r="T8">
-        <v>0.09955777213249792</v>
+        <v>0.1353578773466869</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.931774666666666</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H9">
-        <v>5.795323999999999</v>
+        <v>5.795324</v>
       </c>
       <c r="I9">
-        <v>0.3630798223483028</v>
+        <v>0.4530085767825175</v>
       </c>
       <c r="J9">
-        <v>0.375644677503253</v>
+        <v>0.4611202295621775</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>143.4779605915609</v>
+        <v>161.3127842989102</v>
       </c>
       <c r="R9">
-        <v>1291.301645324048</v>
+        <v>1451.815058690192</v>
       </c>
       <c r="S9">
-        <v>0.04388291511840142</v>
+        <v>0.07080639482514701</v>
       </c>
       <c r="T9">
-        <v>0.04999120985881635</v>
+        <v>0.0764162295624784</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.931774666666666</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H10">
-        <v>5.795323999999999</v>
+        <v>5.795324</v>
       </c>
       <c r="I10">
-        <v>0.3630798223483028</v>
+        <v>0.4530085767825175</v>
       </c>
       <c r="J10">
-        <v>0.375644677503253</v>
+        <v>0.4611202295621775</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>326.964637465814</v>
+        <v>175.9237487897834</v>
       </c>
       <c r="R10">
-        <v>1961.787824794884</v>
+        <v>1055.5424927387</v>
       </c>
       <c r="S10">
-        <v>0.1000025465477319</v>
+        <v>0.07721970995707085</v>
       </c>
       <c r="T10">
-        <v>0.07594828613664548</v>
+        <v>0.05555843835291396</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.931774666666666</v>
+        <v>1.931774666666667</v>
       </c>
       <c r="H11">
-        <v>5.795323999999999</v>
+        <v>5.795324</v>
       </c>
       <c r="I11">
-        <v>0.3630798223483028</v>
+        <v>0.4530085767825175</v>
       </c>
       <c r="J11">
-        <v>0.375644677503253</v>
+        <v>0.4611202295621775</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>163.9245133837738</v>
+        <v>173.54219419804</v>
       </c>
       <c r="R11">
-        <v>1475.320620453964</v>
+        <v>1561.87974778236</v>
       </c>
       <c r="S11">
-        <v>0.05013651906527386</v>
+        <v>0.07617435390885985</v>
       </c>
       <c r="T11">
-        <v>0.05711528596995256</v>
+        <v>0.08220948022346684</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.349899333333333</v>
+        <v>1.371218666666667</v>
       </c>
       <c r="H12">
-        <v>4.049698</v>
+        <v>4.113656</v>
       </c>
       <c r="I12">
-        <v>0.2537155179596995</v>
+        <v>0.3215560424115828</v>
       </c>
       <c r="J12">
-        <v>0.2624956774108866</v>
+        <v>0.3273138825473483</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>186.5818511454098</v>
+        <v>167.190962919928</v>
       </c>
       <c r="R12">
-        <v>1679.236660308688</v>
+        <v>1504.718666279352</v>
       </c>
       <c r="S12">
-        <v>0.0570662943820085</v>
+        <v>0.073386553850369</v>
       </c>
       <c r="T12">
-        <v>0.06500965331539038</v>
+        <v>0.07920080890543119</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.349899333333333</v>
+        <v>1.371218666666667</v>
       </c>
       <c r="H13">
-        <v>4.049698</v>
+        <v>4.113656</v>
       </c>
       <c r="I13">
-        <v>0.2537155179596995</v>
+        <v>0.3215560424115828</v>
       </c>
       <c r="J13">
-        <v>0.2624956774108866</v>
+        <v>0.3273138825473483</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>199.6694554574467</v>
+        <v>202.8228903634933</v>
       </c>
       <c r="R13">
-        <v>1797.02509911702</v>
+        <v>1825.40601327144</v>
       </c>
       <c r="S13">
-        <v>0.0610691546593668</v>
+        <v>0.08902677935335861</v>
       </c>
       <c r="T13">
-        <v>0.06956969285745417</v>
+        <v>0.09608017503326174</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.349899333333333</v>
+        <v>1.371218666666667</v>
       </c>
       <c r="H14">
-        <v>4.049698</v>
+        <v>4.113656</v>
       </c>
       <c r="I14">
-        <v>0.2537155179596995</v>
+        <v>0.3215560424115828</v>
       </c>
       <c r="J14">
-        <v>0.2624956774108866</v>
+        <v>0.3273138825473483</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>100.2605566231884</v>
+        <v>114.5035727092942</v>
       </c>
       <c r="R14">
-        <v>902.345009608696</v>
+        <v>1030.532154383648</v>
       </c>
       <c r="S14">
-        <v>0.03066481763386483</v>
+        <v>0.05026002875953699</v>
       </c>
       <c r="T14">
-        <v>0.03493321556876353</v>
+        <v>0.05424202015919499</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.349899333333333</v>
+        <v>1.371218666666667</v>
       </c>
       <c r="H15">
-        <v>4.049698</v>
+        <v>4.113656</v>
       </c>
       <c r="I15">
-        <v>0.2537155179596995</v>
+        <v>0.3215560424115828</v>
       </c>
       <c r="J15">
-        <v>0.2624956774108866</v>
+        <v>0.3273138825473483</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>228.478690478053</v>
+        <v>124.8747757246333</v>
       </c>
       <c r="R15">
-        <v>1370.872142868318</v>
+        <v>749.2486543478001</v>
       </c>
       <c r="S15">
-        <v>0.0698804955079745</v>
+        <v>0.05481234926350351</v>
       </c>
       <c r="T15">
-        <v>0.05307168718625585</v>
+        <v>0.03943667399460231</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.349899333333333</v>
+        <v>1.371218666666667</v>
       </c>
       <c r="H16">
-        <v>4.049698</v>
+        <v>4.113656</v>
       </c>
       <c r="I16">
-        <v>0.2537155179596995</v>
+        <v>0.3215560424115828</v>
       </c>
       <c r="J16">
-        <v>0.2624956774108866</v>
+        <v>0.3273138825473483</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>114.5483451833309</v>
+        <v>123.18429278776</v>
       </c>
       <c r="R16">
-        <v>1030.935106649978</v>
+        <v>1108.65863508984</v>
       </c>
       <c r="S16">
-        <v>0.03503475577648488</v>
+        <v>0.05407033118481464</v>
       </c>
       <c r="T16">
-        <v>0.0399114284830227</v>
+        <v>0.05835420445485803</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.533895</v>
+        <v>0.2250435</v>
       </c>
       <c r="H17">
-        <v>1.06779</v>
+        <v>0.450087</v>
       </c>
       <c r="I17">
-        <v>0.1003463318458021</v>
+        <v>0.05277356485115749</v>
       </c>
       <c r="J17">
-        <v>0.06921263249323052</v>
+        <v>0.03581235850885158</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>73.79447856404001</v>
+        <v>27.4392701751465</v>
       </c>
       <c r="R17">
-        <v>442.76687138424</v>
+        <v>164.635621050879</v>
       </c>
       <c r="S17">
-        <v>0.02257013429575422</v>
+        <v>0.01204415264530543</v>
       </c>
       <c r="T17">
-        <v>0.01714119366768601</v>
+        <v>0.008665589557760495</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.533895</v>
+        <v>0.2250435</v>
       </c>
       <c r="H18">
-        <v>1.06779</v>
+        <v>0.450087</v>
       </c>
       <c r="I18">
-        <v>0.1003463318458021</v>
+        <v>0.05277356485115749</v>
       </c>
       <c r="J18">
-        <v>0.06921263249323052</v>
+        <v>0.03581235850885158</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>78.97072121535001</v>
+        <v>33.287158523355</v>
       </c>
       <c r="R18">
-        <v>473.8243272921</v>
+        <v>199.72295114013</v>
       </c>
       <c r="S18">
-        <v>0.02415329463594271</v>
+        <v>0.01461101610300489</v>
       </c>
       <c r="T18">
-        <v>0.01834354619437326</v>
+        <v>0.01051240982235648</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.533895</v>
+        <v>0.2250435</v>
       </c>
       <c r="H19">
-        <v>1.06779</v>
+        <v>0.450087</v>
       </c>
       <c r="I19">
-        <v>0.1003463318458021</v>
+        <v>0.05277356485115749</v>
       </c>
       <c r="J19">
-        <v>0.06921263249323052</v>
+        <v>0.03581235850885158</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>39.65377903118</v>
+        <v>18.792250566166</v>
       </c>
       <c r="R19">
-        <v>237.92267418708</v>
+        <v>112.753503396996</v>
       </c>
       <c r="S19">
-        <v>0.01212815830511233</v>
+        <v>0.008248642654232778</v>
       </c>
       <c r="T19">
-        <v>0.009210893812864565</v>
+        <v>0.005934776298113308</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.533895</v>
+        <v>0.2250435</v>
       </c>
       <c r="H20">
-        <v>1.06779</v>
+        <v>0.450087</v>
       </c>
       <c r="I20">
-        <v>0.1003463318458021</v>
+        <v>0.05277356485115749</v>
       </c>
       <c r="J20">
-        <v>0.06921263249323052</v>
+        <v>0.03581235850885158</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>90.3649831069725</v>
+        <v>20.49436554061875</v>
       </c>
       <c r="R20">
-        <v>361.45993242789</v>
+        <v>81.97746216247501</v>
       </c>
       <c r="S20">
-        <v>0.02763824399935258</v>
+        <v>0.008995766482283341</v>
       </c>
       <c r="T20">
-        <v>0.01399349207289337</v>
+        <v>0.004314880555935783</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.533895</v>
+        <v>0.2250435</v>
       </c>
       <c r="H21">
-        <v>1.06779</v>
+        <v>0.450087</v>
       </c>
       <c r="I21">
-        <v>0.1003463318458021</v>
+        <v>0.05277356485115749</v>
       </c>
       <c r="J21">
-        <v>0.06921263249323052</v>
+        <v>0.03581235850885158</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>45.30470327786501</v>
+        <v>20.216924599905</v>
       </c>
       <c r="R21">
-        <v>271.8282196671901</v>
+        <v>121.30154759943</v>
       </c>
       <c r="S21">
-        <v>0.01385650060964032</v>
+        <v>0.008873986966331045</v>
       </c>
       <c r="T21">
-        <v>0.01052350674541331</v>
+        <v>0.006384702274685509</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>1.209880333333333</v>
+        <v>0.6418946666666666</v>
       </c>
       <c r="H22">
-        <v>3.629641</v>
+        <v>1.925684</v>
       </c>
       <c r="I22">
-        <v>0.227398745862719</v>
+        <v>0.1505267640209357</v>
       </c>
       <c r="J22">
-        <v>0.235268178776128</v>
+        <v>0.1532221232400832</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>167.2285530361218</v>
+        <v>78.26540727749199</v>
       </c>
       <c r="R22">
-        <v>1505.056977325096</v>
+        <v>704.388665497428</v>
       </c>
       <c r="S22">
-        <v>0.05114706375808954</v>
+        <v>0.03435370205111803</v>
       </c>
       <c r="T22">
-        <v>0.05826649371615534</v>
+        <v>0.03707547021341755</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>1.209880333333333</v>
+        <v>0.6418946666666666</v>
       </c>
       <c r="H23">
-        <v>3.629641</v>
+        <v>1.925684</v>
       </c>
       <c r="I23">
-        <v>0.227398745862719</v>
+        <v>0.1505267640209357</v>
       </c>
       <c r="J23">
-        <v>0.235268178776128</v>
+        <v>0.1532221232400832</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>178.9586388851767</v>
+        <v>94.94541955057331</v>
       </c>
       <c r="R23">
-        <v>1610.62774996659</v>
+        <v>854.5087759551599</v>
       </c>
       <c r="S23">
-        <v>0.05473472530222716</v>
+        <v>0.04167520195473151</v>
       </c>
       <c r="T23">
-        <v>0.06235354082028407</v>
+        <v>0.04497703643152262</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>1.209880333333333</v>
+        <v>0.6418946666666666</v>
       </c>
       <c r="H24">
-        <v>3.629641</v>
+        <v>1.925684</v>
       </c>
       <c r="I24">
-        <v>0.227398745862719</v>
+        <v>0.1505267640209357</v>
       </c>
       <c r="J24">
-        <v>0.235268178776128</v>
+        <v>0.1532221232400832</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>89.86097901679243</v>
+        <v>53.60139445523022</v>
       </c>
       <c r="R24">
-        <v>808.7488111511319</v>
+        <v>482.412550097072</v>
       </c>
       <c r="S24">
-        <v>0.02748409371301236</v>
+        <v>0.02352771676138701</v>
       </c>
       <c r="T24">
-        <v>0.03130974988510807</v>
+        <v>0.02539176594937429</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>1.209880333333333</v>
+        <v>0.6418946666666666</v>
       </c>
       <c r="H25">
-        <v>3.629641</v>
+        <v>1.925684</v>
       </c>
       <c r="I25">
-        <v>0.227398745862719</v>
+        <v>0.1505267640209357</v>
       </c>
       <c r="J25">
-        <v>0.235268178776128</v>
+        <v>0.1532221232400832</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>204.7796212422385</v>
+        <v>58.45636038028334</v>
       </c>
       <c r="R25">
-        <v>1228.677727453431</v>
+        <v>350.7381622817001</v>
       </c>
       <c r="S25">
-        <v>0.06263210530663275</v>
+        <v>0.02565874832002007</v>
       </c>
       <c r="T25">
-        <v>0.04756679924043937</v>
+        <v>0.01846108963039733</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.209880333333333</v>
+        <v>0.6418946666666666</v>
       </c>
       <c r="H26">
-        <v>3.629641</v>
+        <v>1.925684</v>
       </c>
       <c r="I26">
-        <v>0.227398745862719</v>
+        <v>0.1505267640209357</v>
       </c>
       <c r="J26">
-        <v>0.235268178776128</v>
+        <v>0.1532221232400832</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>102.6667593878779</v>
+        <v>57.66501177363999</v>
       </c>
       <c r="R26">
-        <v>924.0008344909011</v>
+        <v>518.98510596276</v>
       </c>
       <c r="S26">
-        <v>0.03140075778275722</v>
+        <v>0.02531139493367909</v>
       </c>
       <c r="T26">
-        <v>0.0357715951141411</v>
+        <v>0.02731676101537145</v>
       </c>
     </row>
   </sheetData>
